--- a/account/management/upload_file/import_product_catalog.xlsx
+++ b/account/management/upload_file/import_product_catalog.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13050" tabRatio="993" activeTab="1"/>
+    <workbookView windowWidth="24180" windowHeight="13725" tabRatio="993" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -12,7 +12,7 @@
     <sheet name="工作表3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet1!$A$1:$C$2656</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet1!$A$1:$D$2656</definedName>
   </definedNames>
   <calcPr calcId="144525" concurrentCalc="0"/>
   <pivotCaches>
@@ -9317,10 +9317,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -9347,30 +9347,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C6500"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -9383,25 +9360,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFF0000"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -9421,16 +9381,46 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF800080"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="DengXian"/>
       <charset val="134"/>
@@ -9453,31 +9443,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF7F7F7F"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -9490,6 +9458,38 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="DengXian"/>
@@ -9497,7 +9497,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="35">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -9518,7 +9518,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -9530,19 +9578,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -9554,43 +9668,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -9602,103 +9692,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -9770,6 +9764,36 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -9781,6 +9805,26 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -9809,32 +9853,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -9843,175 +9861,151 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -10108,7 +10102,6 @@
     <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -26513,7 +26506,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="数据透视表1" cacheId="0" dataPosition="0" autoFormatId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" useAutoFormatting="1" compact="0" compactData="0" gridDropZones="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="数据" cacheId="0" dataPosition="0" autoFormatId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="数据" useAutoFormatting="1" compact="0" compactData="0" gridDropZones="1">
   <location ref="A4:H759" firstHeaderRow="2" firstDataRow="2" firstDataCol="2"/>
   <pivotFields count="3">
     <pivotField compact="0" showAll="0"/>
@@ -33971,8 +33964,8 @@
   <sheetPr/>
   <dimension ref="A1:D2656"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2454" workbookViewId="0">
-      <selection activeCell="C2470" sqref="C2470"/>
+    <sheetView tabSelected="1" topLeftCell="A2290" workbookViewId="0">
+      <selection activeCell="D2294" sqref="D2294"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.82857142857143" defaultRowHeight="18" outlineLevelCol="3"/>
@@ -66348,8 +66341,8 @@
       <c r="C2313" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D2313" s="10" t="e">
-        <v>#N/A</v>
+      <c r="D2313" s="10" t="s">
+        <v>1231</v>
       </c>
     </row>
     <row r="2314" spans="1:4">
@@ -71155,7 +71148,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:C2656"/>
+  <autoFilter ref="A1:D2656"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1"/>
   <headerFooter>
